--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.5524591654254</v>
+        <v>161.279784</v>
       </c>
       <c r="H2">
-        <v>21.5524591654254</v>
+        <v>483.839352</v>
       </c>
       <c r="I2">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="J2">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.30500265192163</v>
+        <v>0.1126243333333333</v>
       </c>
       <c r="N2">
-        <v>3.30500265192163</v>
+        <v>0.337873</v>
       </c>
       <c r="O2">
-        <v>0.3432542161572149</v>
+        <v>0.01082936903163217</v>
       </c>
       <c r="P2">
-        <v>0.3432542161572149</v>
+        <v>0.01082936903163217</v>
       </c>
       <c r="Q2">
-        <v>71.23093469716359</v>
+        <v>18.164028153144</v>
       </c>
       <c r="R2">
-        <v>71.23093469716359</v>
+        <v>163.476253378296</v>
       </c>
       <c r="S2">
-        <v>0.01885594094719843</v>
+        <v>0.003274789932212252</v>
       </c>
       <c r="T2">
-        <v>0.01885594094719843</v>
+        <v>0.003274789932212252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.5524591654254</v>
+        <v>161.279784</v>
       </c>
       <c r="H3">
-        <v>21.5524591654254</v>
+        <v>483.839352</v>
       </c>
       <c r="I3">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="J3">
-        <v>0.05493287499362327</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.32343742646009</v>
+        <v>3.323421</v>
       </c>
       <c r="N3">
-        <v>6.32343742646009</v>
+        <v>9.970262999999999</v>
       </c>
       <c r="O3">
-        <v>0.656745783842785</v>
+        <v>0.3195628457125252</v>
       </c>
       <c r="P3">
-        <v>0.656745783842785</v>
+        <v>0.3195628457125252</v>
       </c>
       <c r="Q3">
-        <v>136.2856269189038</v>
+        <v>536.0006210210639</v>
       </c>
       <c r="R3">
-        <v>136.2856269189038</v>
+        <v>4824.005589189575</v>
       </c>
       <c r="S3">
-        <v>0.03607693404642484</v>
+        <v>0.09663547218602353</v>
       </c>
       <c r="T3">
-        <v>0.03607693404642484</v>
+        <v>0.09663547218602353</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>287.958853577137</v>
+        <v>161.279784</v>
       </c>
       <c r="H4">
-        <v>287.958853577137</v>
+        <v>483.839352</v>
       </c>
       <c r="I4">
-        <v>0.7339490860623428</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="J4">
-        <v>0.7339490860623428</v>
+        <v>0.3023989599621841</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.30500265192163</v>
+        <v>6.963852666666667</v>
       </c>
       <c r="N4">
-        <v>3.30500265192163</v>
+        <v>20.891558</v>
       </c>
       <c r="O4">
-        <v>0.3432542161572149</v>
+        <v>0.6696077852558425</v>
       </c>
       <c r="P4">
-        <v>0.3432542161572149</v>
+        <v>0.6696077852558425</v>
       </c>
       <c r="Q4">
-        <v>951.7047747167502</v>
+        <v>1123.128653887824</v>
       </c>
       <c r="R4">
-        <v>951.7047747167502</v>
+        <v>10108.15788499041</v>
       </c>
       <c r="S4">
-        <v>0.2519311182356337</v>
+        <v>0.2024886978439483</v>
       </c>
       <c r="T4">
-        <v>0.2519311182356337</v>
+        <v>0.2024886978439483</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>287.958853577137</v>
+        <v>288.7700093333333</v>
       </c>
       <c r="H5">
-        <v>287.958853577137</v>
+        <v>866.3100279999999</v>
       </c>
       <c r="I5">
-        <v>0.7339490860623428</v>
+        <v>0.541442630470476</v>
       </c>
       <c r="J5">
-        <v>0.7339490860623428</v>
+        <v>0.5414426304704759</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>6.32343742646009</v>
+        <v>0.1126243333333333</v>
       </c>
       <c r="N5">
-        <v>6.32343742646009</v>
+        <v>0.337873</v>
       </c>
       <c r="O5">
-        <v>0.656745783842785</v>
+        <v>0.01082936903163217</v>
       </c>
       <c r="P5">
-        <v>0.656745783842785</v>
+        <v>0.01082936903163217</v>
       </c>
       <c r="Q5">
-        <v>1820.889791990209</v>
+        <v>32.5225297878271</v>
       </c>
       <c r="R5">
-        <v>1820.889791990209</v>
+        <v>292.702768090444</v>
       </c>
       <c r="S5">
-        <v>0.482017967826709</v>
+        <v>0.005863482054822433</v>
       </c>
       <c r="T5">
-        <v>0.482017967826709</v>
+        <v>0.005863482054822431</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.83041646653609</v>
+        <v>288.7700093333333</v>
       </c>
       <c r="H6">
-        <v>82.83041646653609</v>
+        <v>866.3100279999999</v>
       </c>
       <c r="I6">
-        <v>0.211118038944034</v>
+        <v>0.541442630470476</v>
       </c>
       <c r="J6">
-        <v>0.211118038944034</v>
+        <v>0.5414426304704759</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.30500265192163</v>
+        <v>3.323421</v>
       </c>
       <c r="N6">
-        <v>3.30500265192163</v>
+        <v>9.970262999999999</v>
       </c>
       <c r="O6">
-        <v>0.3432542161572149</v>
+        <v>0.3195628457125252</v>
       </c>
       <c r="P6">
-        <v>0.3432542161572149</v>
+        <v>0.3195628457125252</v>
       </c>
       <c r="Q6">
-        <v>273.7547460816749</v>
+        <v>959.7043131885957</v>
       </c>
       <c r="R6">
-        <v>273.7547460816749</v>
+        <v>8637.338818697363</v>
       </c>
       <c r="S6">
-        <v>0.07246715697438275</v>
+        <v>0.1730249477832206</v>
       </c>
       <c r="T6">
-        <v>0.07246715697438275</v>
+        <v>0.1730249477832205</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.83041646653609</v>
+        <v>288.7700093333333</v>
       </c>
       <c r="H7">
-        <v>82.83041646653609</v>
+        <v>866.3100279999999</v>
       </c>
       <c r="I7">
-        <v>0.211118038944034</v>
+        <v>0.541442630470476</v>
       </c>
       <c r="J7">
-        <v>0.211118038944034</v>
+        <v>0.5414426304704759</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.32343742646009</v>
+        <v>6.963852666666667</v>
       </c>
       <c r="N7">
-        <v>6.32343742646009</v>
+        <v>20.891558</v>
       </c>
       <c r="O7">
-        <v>0.656745783842785</v>
+        <v>0.6696077852558425</v>
       </c>
       <c r="P7">
-        <v>0.656745783842785</v>
+        <v>0.6696077852558425</v>
       </c>
       <c r="Q7">
-        <v>523.7729555337704</v>
+        <v>2010.951799549291</v>
       </c>
       <c r="R7">
-        <v>523.7729555337704</v>
+        <v>18098.56619594362</v>
       </c>
       <c r="S7">
-        <v>0.1386508819696512</v>
+        <v>0.362554200632433</v>
       </c>
       <c r="T7">
-        <v>0.1386508819696512</v>
+        <v>0.3625542006324329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>83.28466000000002</v>
+      </c>
+      <c r="H8">
+        <v>249.85398</v>
+      </c>
+      <c r="I8">
+        <v>0.15615840956734</v>
+      </c>
+      <c r="J8">
+        <v>0.15615840956734</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1126243333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.337873</v>
+      </c>
+      <c r="O8">
+        <v>0.01082936903163217</v>
+      </c>
+      <c r="P8">
+        <v>0.01082936903163217</v>
+      </c>
+      <c r="Q8">
+        <v>9.379879309393335</v>
+      </c>
+      <c r="R8">
+        <v>84.41891378454001</v>
+      </c>
+      <c r="S8">
+        <v>0.001691097044597484</v>
+      </c>
+      <c r="T8">
+        <v>0.001691097044597484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>83.28466000000002</v>
+      </c>
+      <c r="H9">
+        <v>249.85398</v>
+      </c>
+      <c r="I9">
+        <v>0.15615840956734</v>
+      </c>
+      <c r="J9">
+        <v>0.15615840956734</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.323421</v>
+      </c>
+      <c r="N9">
+        <v>9.970262999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.3195628457125252</v>
+      </c>
+      <c r="P9">
+        <v>0.3195628457125252</v>
+      </c>
+      <c r="Q9">
+        <v>276.78998802186</v>
+      </c>
+      <c r="R9">
+        <v>2491.10989219674</v>
+      </c>
+      <c r="S9">
+        <v>0.04990242574328118</v>
+      </c>
+      <c r="T9">
+        <v>0.04990242574328118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>83.28466000000002</v>
+      </c>
+      <c r="H10">
+        <v>249.85398</v>
+      </c>
+      <c r="I10">
+        <v>0.15615840956734</v>
+      </c>
+      <c r="J10">
+        <v>0.15615840956734</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.963852666666667</v>
+      </c>
+      <c r="N10">
+        <v>20.891558</v>
+      </c>
+      <c r="O10">
+        <v>0.6696077852558425</v>
+      </c>
+      <c r="P10">
+        <v>0.6696077852558425</v>
+      </c>
+      <c r="Q10">
+        <v>579.9821016334269</v>
+      </c>
+      <c r="R10">
+        <v>5219.838914700841</v>
+      </c>
+      <c r="S10">
+        <v>0.1045648867794613</v>
+      </c>
+      <c r="T10">
+        <v>0.1045648867794613</v>
       </c>
     </row>
   </sheetData>
